--- a/KPI Captone JS.xlsx
+++ b/KPI Captone JS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AikyaEUGMP1000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CyberSoft\Front-end\Bài tập\Capstone JS\CapstoneJS-BC83-Cybersoft-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3871809-1A22-4F01-B623-FB0643B00CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0322FED0-88AD-4114-9D67-A225E2D8392F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C43A0478-47F5-4EC0-AF1D-4EC1C7A5B05F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -70,21 +70,6 @@
     <t>HTML</t>
   </si>
   <si>
-    <t>*ngày bắt đầu</t>
-  </si>
-  <si>
-    <t>*ngày kết thúc</t>
-  </si>
-  <si>
-    <t>Navbar</t>
-  </si>
-  <si>
-    <t>Submenu</t>
-  </si>
-  <si>
-    <t>Login popup</t>
-  </si>
-  <si>
     <t>Youtube</t>
   </si>
   <si>
@@ -119,13 +104,19 @@
   </si>
   <si>
     <t>Trần Quốc Bảo</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>Nguyễn Nguyễn Gia Bảo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +128,6 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF434343"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -175,14 +159,15 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -213,12 +198,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -226,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,47 +313,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,26 +658,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AA0537-66EB-4FB7-8069-03260E1648CE}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -741,418 +714,418 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="23">
-        <v>45817</v>
-      </c>
-      <c r="H2" s="23">
-        <v>45833</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K2" s="22" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11">
+        <v>45817</v>
+      </c>
+      <c r="H2" s="11">
+        <v>45833</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>45833</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="13">
+        <v>45817</v>
+      </c>
+      <c r="D3" s="13">
+        <v>45833</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="13">
+        <v>45817</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45833</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>45833</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="23">
-        <v>45817</v>
-      </c>
-      <c r="D3" s="23">
-        <v>45833</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="23">
-        <v>45817</v>
-      </c>
-      <c r="H3" s="23">
-        <v>45833</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13">
+        <v>45817</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45833</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="13">
+        <v>45817</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45833</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>45833</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="23">
-        <v>45817</v>
-      </c>
-      <c r="D4" s="23">
-        <v>45833</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="23">
-        <v>45817</v>
-      </c>
-      <c r="H4" s="23">
-        <v>45833</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="23">
-        <v>45817</v>
-      </c>
-      <c r="D5" s="23">
-        <v>45833</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="23">
-        <v>45817</v>
-      </c>
-      <c r="H5" s="23">
-        <v>45833</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>19</v>
+      <c r="A5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11">
+        <v>45817</v>
+      </c>
+      <c r="H5" s="11">
+        <v>45833</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>45833</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="23">
-        <v>45817</v>
-      </c>
-      <c r="D6" s="23">
-        <v>45833</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>19</v>
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45817</v>
+      </c>
+      <c r="D6" s="13">
+        <v>45833</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="13">
+        <v>45817</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45833</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>45833</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="13">
+        <v>45817</v>
+      </c>
+      <c r="D7" s="13">
+        <v>45833</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="13">
+        <v>45817</v>
+      </c>
+      <c r="H7" s="13">
+        <v>45833</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>45833</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="23">
-        <v>45817</v>
-      </c>
-      <c r="H7" s="23">
-        <v>45833</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13">
+        <v>45817</v>
+      </c>
+      <c r="D8" s="13">
+        <v>45833</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="23">
-        <v>45817</v>
-      </c>
-      <c r="D8" s="23">
-        <v>45833</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="23">
-        <v>45817</v>
-      </c>
-      <c r="H8" s="23">
-        <v>45833</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>19</v>
+      <c r="G8" s="13">
+        <v>45817</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45833</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>45833</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13">
+        <v>45817</v>
+      </c>
+      <c r="D9" s="13">
+        <v>45833</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="23">
-        <v>45817</v>
-      </c>
-      <c r="D9" s="23">
-        <v>45833</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="23">
-        <v>45817</v>
-      </c>
-      <c r="H9" s="23">
-        <v>45833</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>19</v>
+      <c r="G9" s="13">
+        <v>45817</v>
+      </c>
+      <c r="H9" s="13">
+        <v>45833</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>45833</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="23">
-        <v>45817</v>
-      </c>
-      <c r="D10" s="23">
-        <v>45833</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="23">
-        <v>45817</v>
-      </c>
-      <c r="H10" s="23">
-        <v>45833</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>19</v>
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="13">
+        <v>45817</v>
+      </c>
+      <c r="D10" s="13">
+        <v>45833</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="13">
+        <v>45833</v>
+      </c>
+      <c r="H10" s="13">
+        <f>G10+2</f>
+        <v>45835</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>45833</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="23">
-        <v>45817</v>
-      </c>
-      <c r="D11" s="23">
-        <v>45833</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="23">
-        <v>45817</v>
-      </c>
-      <c r="H11" s="23">
-        <v>45833</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>19</v>
+      <c r="A11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13">
+        <v>45833</v>
+      </c>
+      <c r="D11" s="13">
+        <f>C11+2</f>
+        <v>45835</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="13">
+        <v>45833</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" ref="H11:H12" si="0">G11+2</f>
+        <v>45835</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>45835</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="23">
-        <v>45817</v>
-      </c>
-      <c r="D12" s="23">
-        <v>45833</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="23">
-        <v>45833</v>
-      </c>
-      <c r="H12" s="23">
-        <f>G12+2</f>
+      <c r="A12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13">
+        <v>45833</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" ref="D12:D13" si="1">C12+2</f>
         <v>45835</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10">
-        <v>45833</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="23">
-        <v>45833</v>
-      </c>
-      <c r="D13" s="23">
-        <f>C13+2</f>
-        <v>45835</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="23">
-        <v>45833</v>
-      </c>
-      <c r="H13" s="23">
-        <f t="shared" ref="H13:H14" si="0">G13+2</f>
-        <v>45835</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10">
-        <v>45835</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="23">
-        <v>45833</v>
-      </c>
-      <c r="D14" s="23">
-        <f t="shared" ref="D14:D15" si="1">C14+2</f>
-        <v>45835</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="23">
-        <v>45833</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="13">
+        <v>45833</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>45835</v>
       </c>
-      <c r="I14" s="21">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
         <v>45835</v>
       </c>
-      <c r="K14" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="23">
-        <v>45833</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="K12" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13">
+        <v>45833</v>
+      </c>
+      <c r="D13" s="13">
         <f t="shared" si="1"/>
         <v>45835</v>
       </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="21">
-        <v>1</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="13">
+        <v>45833</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" ref="H13" si="2">G13+2</f>
         <v>45835</v>
       </c>
-      <c r="K15" s="22" t="s">
-        <v>19</v>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>45835</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>